--- a/biology/Médecine/Jean-Antoine_Brisset/Jean-Antoine_Brisset.xlsx
+++ b/biology/Médecine/Jean-Antoine_Brisset/Jean-Antoine_Brisset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Antoine Brisset, né le 21 septembre 1784 à Hirson[1] et mort le 24 novembre 1856 à Paris[2] est un médecin français, chirurgien-major sous le Premier Empire attaché au service de Masséna et fondateur de l'hôpital qui porte son nom à Hirson[3].
-Il est enterré dans sa ville natale, à Hirson[4],[5],[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Antoine Brisset, né le 21 septembre 1784 à Hirson et mort le 24 novembre 1856 à Paris est un médecin français, chirurgien-major sous le Premier Empire attaché au service de Masséna et fondateur de l'hôpital qui porte son nom à Hirson.
+Il est enterré dans sa ville natale, à Hirson.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Jean-Antoine Brisset, Réflexions sur la vaccine et la variole, ayant pour but d'obtenir, par la vaccination, l'extinction complète de la petite-vérole. : première partie, dans laquelle est indiquée la cause primitive la plus probable de la variole, Mme Marcel, 1828, 263 p. (présentation en ligne)</t>
         </is>
